--- a/Documentation/Pokemon_learnset_rebalance/101_Electrode.xlsx
+++ b/Documentation/Pokemon_learnset_rebalance/101_Electrode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan ten Napel\Desktop\Overig\Pokémon ROM hacking\Changelog\Pokémon_learnset_rebalance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356FC23B-32E5-4B30-8D41-13BE20171BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB38C647-114E-4120-9008-97212A3F8FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,12 +381,6 @@
     <t>Selfdestruct</t>
   </si>
   <si>
-    <t>Mimic</t>
-  </si>
-  <si>
-    <t>Swift</t>
-  </si>
-  <si>
     <t>Wild Charge</t>
   </si>
   <si>
@@ -400,6 +394,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Rapid Spin</t>
+  </si>
+  <si>
+    <t>Take Down</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -832,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -840,7 +840,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -874,7 +874,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -891,7 +891,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -905,7 +905,7 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -919,7 +919,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -933,7 +933,7 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -942,7 +942,7 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
